--- a/biology/Botanique/Hedychium_longicornutum/Hedychium_longicornutum.xlsx
+++ b/biology/Botanique/Hedychium_longicornutum/Hedychium_longicornutum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedychium longicornutum  est une espèce de plantes à fleurs du genre Hedychium de la famille des Zingiberaceae. C'est une plante herbacée vivace originaire d'une région qui s'étend de la Thaïlande à la Malaisie péninsulaire.
 La découverte de Hedychium longicornutum fut faite par le botaniste britannique William Griffith (1810-1845) en Malaisie, à Malacca.
-Elle est mentionnée et décrite en 1892 dans l'ouvrage de Joseph Dalton Hooker  "The Flora of British India", volume 6, page 228 [1].
+Elle est mentionnée et décrite en 1892 dans l'ouvrage de Joseph Dalton Hooker  "The Flora of British India", volume 6, page 228 .
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedychium longicornutum est une épiphyte
 </t>
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,6 +615,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,9 +642,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 oct. 2011)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 oct. 2011) :
 Hedychium crassifolium Baker, (1892)
 Hedychium longicornutum var. minor Ridl., (1926)</t>
         </is>
